--- a/Figures-Tables-Manuscript/Manuscript/T2_SETTING-ANCIENT.xlsx
+++ b/Figures-Tables-Manuscript/Manuscript/T2_SETTING-ANCIENT.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jocelynreahl/Documents/BergmannLab_2018-2020/Reahl_2020/Figures-Tables-Manuscript/Manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26A4EF9-AC11-F442-B1B6-0CF38A1B262C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BF64E7-BA9C-A94F-A7A0-6FDF0BEDAFC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="920" windowWidth="18900" windowHeight="12860" xr2:uid="{B68C0443-DB60-6949-A27B-909E73E0D65E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -200,10 +200,10 @@
     <t>Upper Dainava Till, Estonia</t>
   </si>
   <si>
-    <t>Table [SETTING-ANCIENT]. List of the samples from ancient depositional environments considered in this study. Samples are coded by author (letter in parentheses below each sample citation) and number (column '#') for reference in Figure [HEATMAP-ANCIENT]. S is the number of samples associated with a specific sampling location and N is the total number of quartz grains analyzed per sampling location.</t>
-  </si>
-  <si>
     <t>79°59'29"N, 17°31'20"E</t>
+  </si>
+  <si>
+    <t>Table 2. List of the samples from ancient depositional environments considered in this study. Each group of samples is assigned a number for reference in Figures 1, 2, and 6 (Column #). Column S indicates the number of samples in each sample group, and column N indicates the number of quartz grains in each sample group.</t>
   </si>
 </sst>
 </file>
@@ -298,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -333,6 +333,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -681,14 +690,14 @@
   <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="6" width="3.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
@@ -696,46 +705,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="A2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -773,8 +782,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:8" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5">
@@ -793,14 +802,14 @@
         <v>39</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
       <c r="B9" s="5">
         <v>33</v>
       </c>
@@ -817,12 +826,12 @@
         <v>40</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="8">
@@ -843,12 +852,12 @@
       <c r="G10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="5">
         <v>35</v>
       </c>
@@ -867,10 +876,10 @@
       <c r="G11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="8">
@@ -891,12 +900,12 @@
       <c r="G12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="5">
         <v>37</v>
       </c>
@@ -915,10 +924,10 @@
       <c r="G13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="5">
         <v>38</v>
       </c>
@@ -937,10 +946,10 @@
       <c r="G14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="5">
         <v>39</v>
       </c>
@@ -959,10 +968,10 @@
       <c r="G15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="5">
         <v>40</v>
       </c>
@@ -981,14 +990,14 @@
       <c r="G16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
       <c r="B17" s="5">
         <v>41</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1003,14 +1012,14 @@
       <c r="G17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
       <c r="B18" s="5">
         <v>42</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1025,14 +1034,14 @@
       <c r="G18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
       <c r="B19" s="5">
         <v>43</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1047,14 +1056,14 @@
       <c r="G19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
       <c r="B20" s="5">
         <v>44</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1069,16 +1078,16 @@
       <c r="G20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="8">
         <v>45</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1093,16 +1102,16 @@
       <c r="G21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
       <c r="B22" s="5">
         <v>46</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1117,14 +1126,14 @@
       <c r="G22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
       <c r="B23" s="10">
         <v>47</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1139,10 +1148,10 @@
       <c r="G23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="5">
@@ -1168,7 +1177,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="5">
         <v>49</v>
       </c>
@@ -1187,12 +1196,12 @@
       <c r="G25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="5">
         <v>50</v>
       </c>
@@ -1211,10 +1220,10 @@
       <c r="G26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="8">
@@ -1235,12 +1244,12 @@
       <c r="G27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="5">
         <v>52</v>
       </c>
@@ -1259,10 +1268,10 @@
       <c r="G28" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="5">
         <v>53</v>
       </c>
@@ -1281,10 +1290,10 @@
       <c r="G29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="5">
         <v>54</v>
       </c>
@@ -1303,10 +1312,10 @@
       <c r="G30" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="11">
         <v>55</v>
       </c>
@@ -1325,7 +1334,7 @@
       <c r="G31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="22"/>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="8" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
